--- a/medicine/Enfance/Jacques_Cassabois/Jacques_Cassabois.xlsx
+++ b/medicine/Enfance/Jacques_Cassabois/Jacques_Cassabois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Cassabois, né le 3 octobre 1947 dans le Jura[1], est un auteur français qui a publié des contes, des romans historiques et des nouvelles fantastiques. Il était instituteur de profession.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Cassabois, né le 3 octobre 1947 dans le Jura, est un auteur français qui a publié des contes, des romans historiques et des nouvelles fantastiques. Il était instituteur de profession.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été lauréat du grand prix de la Société des gens de lettres et du Ministère de la Jeunesse et des Sports. Il s’intéresse depuis plusieurs années aux textes fondateurs et aux héros mythiques, tels Sindbad ou Gilgamesh (éditions Hachette jeunesse). Les Quatre Fils de la Terre, publié en 1991 aux éditions Albin Michel,a obtenu le Totem de l'album au Salon du livre et de la presse jeunesse de Montreuil.
 En 1984, il crée avec une vingtaine d'auteurs et illustrateurs la Charte des auteurs et des illustrateurs jeunesse, dont il est le président pendant trois ans.
